--- a/va_facility_data_2025-02-20/Des Moines VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Des%20Moines%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Des Moines VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Des%20Moines%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R56627519d7764a76bd47fbff74bfa5b4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9b429142bc1d41ea8d9e6dec804c1b84"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9bb121036b40453a8d4f8f3e08cb797d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6e25f98f2cbd426cbcb7e950b4568820"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9061d7a264034da78961b5e1b06f14f7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R90c14df954584788bb777dc57dca0229"/>
   </x:sheets>
 </x:workbook>
 </file>
